--- a/reports/resnet18_23_no_MMTM/prediction/9/prediction_test_9.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/9/prediction_test_9.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
